--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2729.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2729.xlsx
@@ -354,7 +354,7 @@
         <v>2.400798354105499</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.365963887449838</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2729.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2729.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.162568767195875</v>
+        <v>0.7393161058425903</v>
       </c>
       <c r="B1">
-        <v>2.400798354105499</v>
+        <v>1.060907959938049</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.018189668655396</v>
       </c>
       <c r="D1">
-        <v>2.365963887449838</v>
+        <v>3.457665920257568</v>
       </c>
       <c r="E1">
-        <v>1.217422738245517</v>
+        <v>3.480510234832764</v>
       </c>
     </row>
   </sheetData>
